--- a/website_version/mentors/julianne/data/Prompts_Utterances.xlsx
+++ b/website_version/mentors/julianne/data/Prompts_Utterances.xlsx
@@ -268,7 +268,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1014,7 +1014,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>

--- a/website_version/mentors/julianne/data/Prompts_Utterances.xlsx
+++ b/website_version/mentors/julianne/data/Prompts_Utterances.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t xml:space="preserve">Situation</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">Good night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_OFF TOPIC_</t>
   </si>
   <si>
     <t xml:space="preserve">I may have said this before.</t>
@@ -268,7 +271,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -594,15 +597,15 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -637,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -672,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -707,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -742,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -777,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -812,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -847,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -882,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -917,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -952,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -987,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -2656,10 +2659,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -2667,46 +2670,46 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
